--- a/settings/tcschool.xlsx
+++ b/settings/tcschool.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1434">
   <si>
     <t>機關代碼</t>
   </si>
@@ -4239,9 +4239,6 @@
   </si>
   <si>
     <t>西屯區東大附中小學部</t>
-  </si>
-  <si>
-    <t>西屯區葳格中小學</t>
   </si>
   <si>
     <t>北區新民高中</t>
@@ -4304,6 +4301,38 @@
   </si>
   <si>
     <t>北屯區私立磊川華德福實驗教育學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大里區市立大里高中</t>
+  </si>
+  <si>
+    <t>24.0950467,120.6767061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西屯區葳格中小學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.1785903,120.7096579</t>
+  </si>
+  <si>
+    <t>北屯區葳格高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平區坪林國小</t>
+  </si>
+  <si>
+    <t>24.1451394,120.7351036</t>
+  </si>
+  <si>
+    <t>222994.641,2671114.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4311,7 +4340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4327,13 +4356,49 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4350,8 +4415,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4634,5043 +4723,5085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C361" sqref="A1:D362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
+    <row r="173" spans="1:4">
+      <c r="A173" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B324" s="5" t="s">
         <v>1423</v>
       </c>
-      <c r="C173" t="s">
-        <v>520</v>
-      </c>
-      <c r="D173" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>522</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C174" t="s">
-        <v>523</v>
-      </c>
-      <c r="D174" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>525</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C175" t="s">
-        <v>526</v>
-      </c>
-      <c r="D175" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>528</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C176" t="s">
-        <v>529</v>
-      </c>
-      <c r="D176" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>531</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C177" t="s">
-        <v>532</v>
-      </c>
-      <c r="D177" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>534</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C178" t="s">
-        <v>535</v>
-      </c>
-      <c r="D178" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>537</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C179" t="s">
-        <v>538</v>
-      </c>
-      <c r="D179" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>540</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C180" t="s">
-        <v>541</v>
-      </c>
-      <c r="D180" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>543</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C181" t="s">
-        <v>544</v>
-      </c>
-      <c r="D181" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>546</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C182" t="s">
-        <v>547</v>
-      </c>
-      <c r="D182" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>549</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C183" t="s">
-        <v>550</v>
-      </c>
-      <c r="D183" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>552</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C184" t="s">
-        <v>553</v>
-      </c>
-      <c r="D184" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>555</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C185" t="s">
-        <v>556</v>
-      </c>
-      <c r="D185" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>558</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C186" t="s">
-        <v>559</v>
-      </c>
-      <c r="D186" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>561</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C187" t="s">
-        <v>562</v>
-      </c>
-      <c r="D187" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>564</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C188" t="s">
-        <v>565</v>
-      </c>
-      <c r="D188" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>567</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C189" t="s">
-        <v>435</v>
-      </c>
-      <c r="D189" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>569</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C190" t="s">
-        <v>570</v>
-      </c>
-      <c r="D190" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>572</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C191" t="s">
-        <v>573</v>
-      </c>
-      <c r="D191" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>575</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C192" t="s">
-        <v>576</v>
-      </c>
-      <c r="D192" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>578</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C193" t="s">
-        <v>579</v>
-      </c>
-      <c r="D193" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>581</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C194" t="s">
-        <v>582</v>
-      </c>
-      <c r="D194" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>584</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C195" t="s">
-        <v>585</v>
-      </c>
-      <c r="D195" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
-        <v>586</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C196" t="s">
-        <v>587</v>
-      </c>
-      <c r="D196" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>589</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C197" t="s">
-        <v>590</v>
-      </c>
-      <c r="D197" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>592</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C198" t="s">
-        <v>593</v>
-      </c>
-      <c r="D198" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
-        <v>595</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C199" t="s">
-        <v>596</v>
-      </c>
-      <c r="D199" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
-        <v>598</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C200" t="s">
-        <v>599</v>
-      </c>
-      <c r="D200" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
-        <v>601</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C201" t="s">
-        <v>602</v>
-      </c>
-      <c r="D201" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>604</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C202" t="s">
-        <v>605</v>
-      </c>
-      <c r="D202" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
-        <v>607</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C203" t="s">
-        <v>608</v>
-      </c>
-      <c r="D203" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
-        <v>610</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C204" t="s">
-        <v>611</v>
-      </c>
-      <c r="D204" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
-        <v>613</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C205" t="s">
-        <v>614</v>
-      </c>
-      <c r="D205" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
-        <v>616</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C206" t="s">
-        <v>617</v>
-      </c>
-      <c r="D206" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
-        <v>619</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C207" t="s">
-        <v>620</v>
-      </c>
-      <c r="D207" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
-        <v>622</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C208" t="s">
-        <v>623</v>
-      </c>
-      <c r="D208" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
-        <v>625</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C209" t="s">
-        <v>626</v>
-      </c>
-      <c r="D209" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>628</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C210" t="s">
-        <v>629</v>
-      </c>
-      <c r="D210" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>631</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C211" t="s">
-        <v>632</v>
-      </c>
-      <c r="D211" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>634</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C212" t="s">
-        <v>635</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="C324" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D361" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
-        <v>637</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C213" t="s">
-        <v>638</v>
-      </c>
-      <c r="D213" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
-        <v>640</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C214" t="s">
-        <v>641</v>
-      </c>
-      <c r="D214" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
-        <v>643</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C215" t="s">
-        <v>644</v>
-      </c>
-      <c r="D215" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
-        <v>646</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C216" t="s">
-        <v>647</v>
-      </c>
-      <c r="D216" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
-        <v>649</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C217" t="s">
-        <v>650</v>
-      </c>
-      <c r="D217" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
-        <v>652</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C218" t="s">
-        <v>653</v>
-      </c>
-      <c r="D218" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
-        <v>655</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C219" t="s">
-        <v>656</v>
-      </c>
-      <c r="D219" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
-        <v>658</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C220" t="s">
-        <v>659</v>
-      </c>
-      <c r="D220" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
-        <v>661</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C221" t="s">
-        <v>662</v>
-      </c>
-      <c r="D221" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
-        <v>664</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C222" t="s">
-        <v>665</v>
-      </c>
-      <c r="D222" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>667</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C223" t="s">
-        <v>668</v>
-      </c>
-      <c r="D223" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>669</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C224" t="s">
-        <v>670</v>
-      </c>
-      <c r="D224" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
-        <v>672</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C225" t="s">
-        <v>673</v>
-      </c>
-      <c r="D225" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>675</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C226" t="s">
-        <v>676</v>
-      </c>
-      <c r="D226" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>678</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C227" t="s">
-        <v>679</v>
-      </c>
-      <c r="D227" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
-        <v>681</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C228" t="s">
-        <v>682</v>
-      </c>
-      <c r="D228" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
-        <v>684</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C229" t="s">
-        <v>685</v>
-      </c>
-      <c r="D229" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
-        <v>687</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C230" t="s">
-        <v>688</v>
-      </c>
-      <c r="D230" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
-        <v>690</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C231" t="s">
-        <v>691</v>
-      </c>
-      <c r="D231" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
-        <v>693</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C232" t="s">
-        <v>694</v>
-      </c>
-      <c r="D232" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
-        <v>696</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C233" t="s">
-        <v>697</v>
-      </c>
-      <c r="D233" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
-        <v>699</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C234" t="s">
-        <v>700</v>
-      </c>
-      <c r="D234" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
-        <v>702</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C235" t="s">
-        <v>703</v>
-      </c>
-      <c r="D235" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
-        <v>705</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C236" t="s">
-        <v>706</v>
-      </c>
-      <c r="D236" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
-        <v>708</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C237" t="s">
-        <v>709</v>
-      </c>
-      <c r="D237" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
-        <v>711</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C238" t="s">
-        <v>712</v>
-      </c>
-      <c r="D238" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
-        <v>714</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C239" t="s">
-        <v>715</v>
-      </c>
-      <c r="D239" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
-        <v>717</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C240" t="s">
-        <v>718</v>
-      </c>
-      <c r="D240" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
-        <v>720</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C241" t="s">
-        <v>721</v>
-      </c>
-      <c r="D241" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
-        <v>723</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C242" t="s">
-        <v>724</v>
-      </c>
-      <c r="D242" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>726</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C243" t="s">
-        <v>727</v>
-      </c>
-      <c r="D243" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
-        <v>729</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C244" t="s">
-        <v>730</v>
-      </c>
-      <c r="D244" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
-        <v>732</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C245" t="s">
-        <v>733</v>
-      </c>
-      <c r="D245" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
-        <v>735</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C246" t="s">
-        <v>736</v>
-      </c>
-      <c r="D246" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
-        <v>738</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C247" t="s">
-        <v>739</v>
-      </c>
-      <c r="D247" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
-        <v>741</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C248" t="s">
-        <v>742</v>
-      </c>
-      <c r="D248" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>744</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C249" t="s">
-        <v>745</v>
-      </c>
-      <c r="D249" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
-        <v>747</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C250" t="s">
-        <v>748</v>
-      </c>
-      <c r="D250" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
-        <v>750</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C251" t="s">
-        <v>751</v>
-      </c>
-      <c r="D251" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
-        <v>753</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C252" t="s">
-        <v>754</v>
-      </c>
-      <c r="D252" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>756</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C253" t="s">
-        <v>757</v>
-      </c>
-      <c r="D253" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>759</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C254" t="s">
-        <v>760</v>
-      </c>
-      <c r="D254" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
-        <v>762</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C255" t="s">
-        <v>763</v>
-      </c>
-      <c r="D255" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
-        <v>765</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C256" t="s">
-        <v>766</v>
-      </c>
-      <c r="D256" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
-        <v>768</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C257" t="s">
-        <v>769</v>
-      </c>
-      <c r="D257" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
-        <v>771</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C258" t="s">
-        <v>772</v>
-      </c>
-      <c r="D258" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
-        <v>774</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C259" t="s">
-        <v>499</v>
-      </c>
-      <c r="D259" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
-        <v>775</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C260" t="s">
-        <v>776</v>
-      </c>
-      <c r="D260" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
-        <v>778</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C261" t="s">
-        <v>779</v>
-      </c>
-      <c r="D261" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
-        <v>781</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C262" t="s">
-        <v>782</v>
-      </c>
-      <c r="D262" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
-        <v>784</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C263" t="s">
-        <v>785</v>
-      </c>
-      <c r="D263" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
-        <v>787</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C264" t="s">
-        <v>788</v>
-      </c>
-      <c r="D264" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
-        <v>790</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C265" t="s">
-        <v>791</v>
-      </c>
-      <c r="D265" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
-        <v>793</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C266" t="s">
-        <v>794</v>
-      </c>
-      <c r="D266" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
-        <v>796</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C267" t="s">
-        <v>797</v>
-      </c>
-      <c r="D267" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
-        <v>799</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C268" t="s">
-        <v>800</v>
-      </c>
-      <c r="D268" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
-        <v>802</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C269" t="s">
-        <v>803</v>
-      </c>
-      <c r="D269" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
-        <v>805</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C270" t="s">
-        <v>806</v>
-      </c>
-      <c r="D270" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
-        <v>808</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C271" t="s">
-        <v>809</v>
-      </c>
-      <c r="D271" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" t="s">
-        <v>811</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C272" t="s">
-        <v>812</v>
-      </c>
-      <c r="D272" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" t="s">
-        <v>814</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C273" t="s">
-        <v>815</v>
-      </c>
-      <c r="D273" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
-        <v>817</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C274" t="s">
-        <v>818</v>
-      </c>
-      <c r="D274" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
-        <v>820</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C275" t="s">
-        <v>821</v>
-      </c>
-      <c r="D275" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
-        <v>823</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C276" t="s">
-        <v>824</v>
-      </c>
-      <c r="D276" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
-        <v>826</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C277" t="s">
-        <v>827</v>
-      </c>
-      <c r="D277" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
-        <v>829</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C278" t="s">
-        <v>830</v>
-      </c>
-      <c r="D278" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A279" t="s">
-        <v>832</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C279" t="s">
-        <v>833</v>
-      </c>
-      <c r="D279" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
-        <v>835</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C280" t="s">
-        <v>836</v>
-      </c>
-      <c r="D280" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
-        <v>838</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C281" t="s">
-        <v>839</v>
-      </c>
-      <c r="D281" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
-        <v>841</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C282" t="s">
-        <v>842</v>
-      </c>
-      <c r="D282" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
-        <v>844</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C283" t="s">
-        <v>420</v>
-      </c>
-      <c r="D283" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A284" t="s">
-        <v>845</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C284" t="s">
-        <v>520</v>
-      </c>
-      <c r="D284" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
-        <v>846</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C285" t="s">
-        <v>847</v>
-      </c>
-      <c r="D285" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
-        <v>849</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C286" t="s">
-        <v>850</v>
-      </c>
-      <c r="D286" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
-        <v>852</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C287" t="s">
-        <v>853</v>
-      </c>
-      <c r="D287" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
-        <v>855</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C288" t="s">
-        <v>856</v>
-      </c>
-      <c r="D288" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
-        <v>858</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C289" t="s">
-        <v>859</v>
-      </c>
-      <c r="D289" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
-        <v>861</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C290" t="s">
-        <v>862</v>
-      </c>
-      <c r="D290" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
-        <v>864</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C291" t="s">
-        <v>865</v>
-      </c>
-      <c r="D291" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
-        <v>867</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C292" t="s">
-        <v>868</v>
-      </c>
-      <c r="D292" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A293" t="s">
-        <v>870</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C293" t="s">
-        <v>871</v>
-      </c>
-      <c r="D293" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
-        <v>873</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C294" t="s">
-        <v>874</v>
-      </c>
-      <c r="D294" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
-        <v>876</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C295" t="s">
-        <v>877</v>
-      </c>
-      <c r="D295" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
-        <v>879</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C296" t="s">
-        <v>880</v>
-      </c>
-      <c r="D296" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
-        <v>882</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C297" t="s">
-        <v>883</v>
-      </c>
-      <c r="D297" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
-        <v>885</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C298" t="s">
-        <v>886</v>
-      </c>
-      <c r="D298" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
-        <v>888</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C299" t="s">
-        <v>889</v>
-      </c>
-      <c r="D299" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
-        <v>891</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C300" t="s">
-        <v>892</v>
-      </c>
-      <c r="D300" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A301" t="s">
-        <v>894</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C301" t="s">
-        <v>895</v>
-      </c>
-      <c r="D301" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
-        <v>897</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C302" t="s">
-        <v>898</v>
-      </c>
-      <c r="D302" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
-        <v>900</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C303" t="s">
-        <v>901</v>
-      </c>
-      <c r="D303" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
-        <v>903</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C304" t="s">
-        <v>904</v>
-      </c>
-      <c r="D304" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
-        <v>906</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C305" t="s">
-        <v>907</v>
-      </c>
-      <c r="D305" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
-        <v>909</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C306" t="s">
-        <v>910</v>
-      </c>
-      <c r="D306" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
-        <v>912</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C307" t="s">
-        <v>913</v>
-      </c>
-      <c r="D307" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
-        <v>915</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C308" t="s">
-        <v>916</v>
-      </c>
-      <c r="D308" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
-        <v>918</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C309" t="s">
-        <v>919</v>
-      </c>
-      <c r="D309" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
-        <v>921</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C310" t="s">
-        <v>922</v>
-      </c>
-      <c r="D310" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
-        <v>924</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C311" t="s">
-        <v>925</v>
-      </c>
-      <c r="D311" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
-        <v>927</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C312" t="s">
-        <v>928</v>
-      </c>
-      <c r="D312" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
-        <v>930</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C313" t="s">
-        <v>931</v>
-      </c>
-      <c r="D313" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
-        <v>933</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C314" t="s">
-        <v>934</v>
-      </c>
-      <c r="D314" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
-        <v>936</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C315" t="s">
-        <v>937</v>
-      </c>
-      <c r="D315" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
-        <v>939</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C316" t="s">
-        <v>940</v>
-      </c>
-      <c r="D316" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A317" t="s">
-        <v>942</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C317" t="s">
-        <v>943</v>
-      </c>
-      <c r="D317" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
-        <v>945</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C318" t="s">
-        <v>946</v>
-      </c>
-      <c r="D318" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A319" t="s">
-        <v>948</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C319" t="s">
-        <v>949</v>
-      </c>
-      <c r="D319" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A320" t="s">
-        <v>951</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C320" t="s">
-        <v>952</v>
-      </c>
-      <c r="D320" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A321" t="s">
-        <v>954</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C321" t="s">
-        <v>955</v>
-      </c>
-      <c r="D321" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A322" t="s">
-        <v>957</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C322" t="s">
-        <v>958</v>
-      </c>
-      <c r="D322" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A323" t="s">
-        <v>960</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C323" t="s">
-        <v>961</v>
-      </c>
-      <c r="D323" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A324" t="s">
-        <v>963</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C324" t="s">
-        <v>964</v>
-      </c>
-      <c r="D324" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A325" t="s">
-        <v>966</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C325" t="s">
-        <v>967</v>
-      </c>
-      <c r="D325" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A326" t="s">
-        <v>969</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C326" t="s">
-        <v>970</v>
-      </c>
-      <c r="D326" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A327" t="s">
-        <v>972</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C327" t="s">
-        <v>973</v>
-      </c>
-      <c r="D327" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A328" t="s">
-        <v>975</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C328" t="s">
-        <v>976</v>
-      </c>
-      <c r="D328" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A329" t="s">
-        <v>978</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C329" t="s">
-        <v>979</v>
-      </c>
-      <c r="D329" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A330" t="s">
-        <v>981</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C330" t="s">
-        <v>982</v>
-      </c>
-      <c r="D330" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A331" t="s">
-        <v>984</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C331" t="s">
-        <v>985</v>
-      </c>
-      <c r="D331" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A332" t="s">
-        <v>987</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C332" t="s">
-        <v>988</v>
-      </c>
-      <c r="D332" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A333" t="s">
-        <v>990</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C333" t="s">
-        <v>991</v>
-      </c>
-      <c r="D333" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A334" t="s">
-        <v>993</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C334" t="s">
-        <v>994</v>
-      </c>
-      <c r="D334" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A335" t="s">
-        <v>996</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C335" t="s">
-        <v>997</v>
-      </c>
-      <c r="D335" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A336" t="s">
-        <v>999</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A337" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A338" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A339" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A340" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A341" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A342" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A343" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A344" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A345" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A346" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A347" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A348" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A349" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A350" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A351" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A352" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A353" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A354" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A355" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A356" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A357" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A358" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A359" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1069</v>
+    <row r="362" spans="1:4">
+      <c r="A362" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D362" s="7" t="s">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>

--- a/settings/tcschool.xlsx
+++ b/settings/tcschool.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1438">
   <si>
     <t>機關代碼</t>
   </si>
@@ -4333,6 +4333,21 @@
   </si>
   <si>
     <t>222994.641,2671114.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999,9999</t>
+  </si>
+  <si>
+    <t>9999,9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4723,10 +4738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D362"/>
+  <dimension ref="A1:D363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C361" sqref="A1:D362"/>
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9804,6 +9819,20 @@
         <v>1433</v>
       </c>
     </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>1436</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/settings/tcschool.xlsx
+++ b/settings/tcschool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1434">
   <si>
     <t>機關代碼</t>
   </si>
@@ -3005,15 +3005,6 @@
     <t>221855.003,2688944.501</t>
   </si>
   <si>
-    <t>064324</t>
-  </si>
-  <si>
-    <t>24.0951235,120.6789632</t>
-  </si>
-  <si>
-    <t>217320.094,2665523.5</t>
-  </si>
-  <si>
     <t>064328</t>
   </si>
   <si>
@@ -4218,9 +4209,6 @@
   </si>
   <si>
     <t>后里區后綜高中</t>
-  </si>
-  <si>
-    <t>大里區大里高中</t>
   </si>
   <si>
     <t>新社區新社高中</t>
@@ -4304,13 +4292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大里區市立大里高中</t>
-  </si>
-  <si>
-    <t>24.0950467,120.6767061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>064324</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4348,6 +4329,14 @@
   </si>
   <si>
     <t>9999,9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大里區大里高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0950516,120.6767061</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4738,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D363"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4770,7 +4759,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -4784,7 +4773,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -4798,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -4812,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -4826,7 +4815,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -4840,7 +4829,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -4854,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -4868,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>26</v>
@@ -4882,7 +4871,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>29</v>
@@ -4896,7 +4885,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>32</v>
@@ -4910,7 +4899,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>35</v>
@@ -4924,7 +4913,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
@@ -4938,7 +4927,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>41</v>
@@ -4952,7 +4941,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
@@ -4966,7 +4955,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>47</v>
@@ -4980,7 +4969,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>50</v>
@@ -4994,7 +4983,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>53</v>
@@ -5008,7 +4997,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>56</v>
@@ -5022,7 +5011,7 @@
         <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>59</v>
@@ -5036,7 +5025,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>62</v>
@@ -5050,7 +5039,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>65</v>
@@ -5064,7 +5053,7 @@
         <v>67</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>68</v>
@@ -5078,7 +5067,7 @@
         <v>70</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>71</v>
@@ -5092,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>74</v>
@@ -5106,7 +5095,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>77</v>
@@ -5120,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>80</v>
@@ -5134,7 +5123,7 @@
         <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>83</v>
@@ -5148,7 +5137,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>86</v>
@@ -5162,7 +5151,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>89</v>
@@ -5176,7 +5165,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>92</v>
@@ -5190,7 +5179,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>95</v>
@@ -5204,7 +5193,7 @@
         <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>98</v>
@@ -5218,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>101</v>
@@ -5232,7 +5221,7 @@
         <v>103</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>104</v>
@@ -5246,7 +5235,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>107</v>
@@ -5260,7 +5249,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>110</v>
@@ -5274,7 +5263,7 @@
         <v>112</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>113</v>
@@ -5288,7 +5277,7 @@
         <v>115</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>116</v>
@@ -5302,7 +5291,7 @@
         <v>118</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>119</v>
@@ -5316,7 +5305,7 @@
         <v>121</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>122</v>
@@ -5330,7 +5319,7 @@
         <v>124</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>125</v>
@@ -5344,7 +5333,7 @@
         <v>127</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>128</v>
@@ -5358,7 +5347,7 @@
         <v>130</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>131</v>
@@ -5372,7 +5361,7 @@
         <v>133</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>134</v>
@@ -5386,7 +5375,7 @@
         <v>136</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>137</v>
@@ -5400,7 +5389,7 @@
         <v>139</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>140</v>
@@ -5414,7 +5403,7 @@
         <v>142</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>143</v>
@@ -5428,7 +5417,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>146</v>
@@ -5442,7 +5431,7 @@
         <v>148</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>149</v>
@@ -5456,7 +5445,7 @@
         <v>151</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>152</v>
@@ -5470,7 +5459,7 @@
         <v>154</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>155</v>
@@ -5484,7 +5473,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>158</v>
@@ -5498,7 +5487,7 @@
         <v>160</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>161</v>
@@ -5512,7 +5501,7 @@
         <v>163</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>164</v>
@@ -5526,7 +5515,7 @@
         <v>166</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>167</v>
@@ -5540,7 +5529,7 @@
         <v>169</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>170</v>
@@ -5554,7 +5543,7 @@
         <v>172</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>173</v>
@@ -5568,7 +5557,7 @@
         <v>175</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>176</v>
@@ -5582,7 +5571,7 @@
         <v>178</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>179</v>
@@ -5596,7 +5585,7 @@
         <v>181</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>182</v>
@@ -5610,7 +5599,7 @@
         <v>184</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>185</v>
@@ -5624,7 +5613,7 @@
         <v>187</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>188</v>
@@ -5638,7 +5627,7 @@
         <v>190</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>191</v>
@@ -5652,7 +5641,7 @@
         <v>193</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>194</v>
@@ -5666,7 +5655,7 @@
         <v>196</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>197</v>
@@ -5680,7 +5669,7 @@
         <v>199</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>200</v>
@@ -5694,7 +5683,7 @@
         <v>202</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>203</v>
@@ -5708,7 +5697,7 @@
         <v>205</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>206</v>
@@ -5722,7 +5711,7 @@
         <v>208</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>209</v>
@@ -5736,7 +5725,7 @@
         <v>211</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>212</v>
@@ -5750,7 +5739,7 @@
         <v>214</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>215</v>
@@ -5764,7 +5753,7 @@
         <v>217</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>218</v>
@@ -5778,7 +5767,7 @@
         <v>220</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>221</v>
@@ -5792,7 +5781,7 @@
         <v>223</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>224</v>
@@ -5806,7 +5795,7 @@
         <v>226</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>227</v>
@@ -5820,7 +5809,7 @@
         <v>229</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>230</v>
@@ -5834,7 +5823,7 @@
         <v>232</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>233</v>
@@ -5848,7 +5837,7 @@
         <v>235</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>236</v>
@@ -5862,7 +5851,7 @@
         <v>238</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>239</v>
@@ -5876,7 +5865,7 @@
         <v>241</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>242</v>
@@ -5890,7 +5879,7 @@
         <v>244</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>245</v>
@@ -5904,7 +5893,7 @@
         <v>247</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>248</v>
@@ -5918,7 +5907,7 @@
         <v>250</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>251</v>
@@ -5932,7 +5921,7 @@
         <v>253</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>254</v>
@@ -5946,7 +5935,7 @@
         <v>256</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>257</v>
@@ -5960,7 +5949,7 @@
         <v>259</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>260</v>
@@ -5974,7 +5963,7 @@
         <v>262</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>263</v>
@@ -5988,7 +5977,7 @@
         <v>265</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>266</v>
@@ -6002,7 +5991,7 @@
         <v>268</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>269</v>
@@ -6016,7 +6005,7 @@
         <v>271</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>272</v>
@@ -6030,7 +6019,7 @@
         <v>274</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>275</v>
@@ -6044,7 +6033,7 @@
         <v>277</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>278</v>
@@ -6058,7 +6047,7 @@
         <v>280</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>281</v>
@@ -6072,7 +6061,7 @@
         <v>283</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>284</v>
@@ -6086,7 +6075,7 @@
         <v>286</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>287</v>
@@ -6100,7 +6089,7 @@
         <v>289</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>290</v>
@@ -6114,7 +6103,7 @@
         <v>292</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>293</v>
@@ -6128,7 +6117,7 @@
         <v>295</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>296</v>
@@ -6142,7 +6131,7 @@
         <v>298</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>299</v>
@@ -6156,7 +6145,7 @@
         <v>301</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>302</v>
@@ -6170,7 +6159,7 @@
         <v>304</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>305</v>
@@ -6184,7 +6173,7 @@
         <v>307</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>308</v>
@@ -6198,7 +6187,7 @@
         <v>310</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>311</v>
@@ -6212,7 +6201,7 @@
         <v>313</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>314</v>
@@ -6226,7 +6215,7 @@
         <v>316</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>317</v>
@@ -6240,7 +6229,7 @@
         <v>319</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>320</v>
@@ -6254,7 +6243,7 @@
         <v>322</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>323</v>
@@ -6268,7 +6257,7 @@
         <v>325</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>326</v>
@@ -6282,7 +6271,7 @@
         <v>328</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>329</v>
@@ -6296,7 +6285,7 @@
         <v>331</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>332</v>
@@ -6310,7 +6299,7 @@
         <v>334</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>335</v>
@@ -6324,7 +6313,7 @@
         <v>337</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>338</v>
@@ -6338,7 +6327,7 @@
         <v>340</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>341</v>
@@ -6352,7 +6341,7 @@
         <v>343</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>344</v>
@@ -6366,7 +6355,7 @@
         <v>346</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>347</v>
@@ -6380,7 +6369,7 @@
         <v>349</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>350</v>
@@ -6394,7 +6383,7 @@
         <v>352</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>353</v>
@@ -6408,7 +6397,7 @@
         <v>355</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>356</v>
@@ -6422,7 +6411,7 @@
         <v>358</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>359</v>
@@ -6436,7 +6425,7 @@
         <v>361</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>362</v>
@@ -6450,7 +6439,7 @@
         <v>364</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>365</v>
@@ -6464,7 +6453,7 @@
         <v>367</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>368</v>
@@ -6478,7 +6467,7 @@
         <v>370</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>371</v>
@@ -6492,7 +6481,7 @@
         <v>373</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>374</v>
@@ -6506,7 +6495,7 @@
         <v>376</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>377</v>
@@ -6520,7 +6509,7 @@
         <v>379</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>380</v>
@@ -6534,7 +6523,7 @@
         <v>382</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>383</v>
@@ -6548,7 +6537,7 @@
         <v>385</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>386</v>
@@ -6562,7 +6551,7 @@
         <v>388</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>389</v>
@@ -6576,7 +6565,7 @@
         <v>391</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>392</v>
@@ -6590,7 +6579,7 @@
         <v>394</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>395</v>
@@ -6604,7 +6593,7 @@
         <v>397</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>398</v>
@@ -6618,7 +6607,7 @@
         <v>400</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>401</v>
@@ -6632,7 +6621,7 @@
         <v>403</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>404</v>
@@ -6646,7 +6635,7 @@
         <v>406</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>407</v>
@@ -6660,7 +6649,7 @@
         <v>409</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>410</v>
@@ -6674,7 +6663,7 @@
         <v>412</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>413</v>
@@ -6688,7 +6677,7 @@
         <v>415</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>416</v>
@@ -6716,7 +6705,7 @@
         <v>422</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>423</v>
@@ -6730,7 +6719,7 @@
         <v>425</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>426</v>
@@ -6744,7 +6733,7 @@
         <v>428</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>429</v>
@@ -6758,7 +6747,7 @@
         <v>431</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>432</v>
@@ -6772,7 +6761,7 @@
         <v>434</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>435</v>
@@ -6786,7 +6775,7 @@
         <v>437</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>438</v>
@@ -6800,7 +6789,7 @@
         <v>440</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>441</v>
@@ -6814,7 +6803,7 @@
         <v>443</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>444</v>
@@ -6828,7 +6817,7 @@
         <v>446</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>447</v>
@@ -6842,7 +6831,7 @@
         <v>449</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>450</v>
@@ -6856,7 +6845,7 @@
         <v>452</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>453</v>
@@ -6870,7 +6859,7 @@
         <v>455</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>456</v>
@@ -6884,7 +6873,7 @@
         <v>458</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>459</v>
@@ -6898,7 +6887,7 @@
         <v>461</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>462</v>
@@ -6912,7 +6901,7 @@
         <v>464</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>465</v>
@@ -6926,7 +6915,7 @@
         <v>467</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>468</v>
@@ -6940,7 +6929,7 @@
         <v>470</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>471</v>
@@ -6954,7 +6943,7 @@
         <v>473</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>474</v>
@@ -6968,7 +6957,7 @@
         <v>476</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>477</v>
@@ -6982,7 +6971,7 @@
         <v>479</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>480</v>
@@ -6996,7 +6985,7 @@
         <v>482</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>483</v>
@@ -7010,7 +6999,7 @@
         <v>485</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>486</v>
@@ -7024,7 +7013,7 @@
         <v>488</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>489</v>
@@ -7038,7 +7027,7 @@
         <v>491</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>492</v>
@@ -7052,7 +7041,7 @@
         <v>494</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>495</v>
@@ -7080,7 +7069,7 @@
         <v>501</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>502</v>
@@ -7094,7 +7083,7 @@
         <v>504</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>505</v>
@@ -7108,7 +7097,7 @@
         <v>507</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>508</v>
@@ -7122,7 +7111,7 @@
         <v>510</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>511</v>
@@ -7136,7 +7125,7 @@
         <v>513</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>514</v>
@@ -7150,7 +7139,7 @@
         <v>516</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>517</v>
@@ -7164,7 +7153,7 @@
         <v>519</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>520</v>
@@ -7178,7 +7167,7 @@
         <v>522</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>523</v>
@@ -7192,7 +7181,7 @@
         <v>525</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>526</v>
@@ -7206,7 +7195,7 @@
         <v>528</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>529</v>
@@ -7220,7 +7209,7 @@
         <v>531</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>532</v>
@@ -7234,7 +7223,7 @@
         <v>534</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>535</v>
@@ -7248,7 +7237,7 @@
         <v>537</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>538</v>
@@ -7262,7 +7251,7 @@
         <v>540</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>541</v>
@@ -7276,7 +7265,7 @@
         <v>543</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>544</v>
@@ -7290,7 +7279,7 @@
         <v>546</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>547</v>
@@ -7304,7 +7293,7 @@
         <v>549</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>550</v>
@@ -7318,7 +7307,7 @@
         <v>552</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>553</v>
@@ -7332,7 +7321,7 @@
         <v>555</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>556</v>
@@ -7346,7 +7335,7 @@
         <v>558</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>559</v>
@@ -7360,7 +7349,7 @@
         <v>561</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>562</v>
@@ -7374,7 +7363,7 @@
         <v>564</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>565</v>
@@ -7388,7 +7377,7 @@
         <v>567</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>435</v>
@@ -7402,7 +7391,7 @@
         <v>569</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>570</v>
@@ -7416,7 +7405,7 @@
         <v>572</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>573</v>
@@ -7430,7 +7419,7 @@
         <v>575</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>576</v>
@@ -7444,7 +7433,7 @@
         <v>578</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>579</v>
@@ -7458,7 +7447,7 @@
         <v>581</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>582</v>
@@ -7472,7 +7461,7 @@
         <v>584</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>585</v>
@@ -7486,7 +7475,7 @@
         <v>586</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>587</v>
@@ -7500,7 +7489,7 @@
         <v>589</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>590</v>
@@ -7514,7 +7503,7 @@
         <v>592</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>593</v>
@@ -7528,7 +7517,7 @@
         <v>595</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>596</v>
@@ -7542,7 +7531,7 @@
         <v>598</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>599</v>
@@ -7556,7 +7545,7 @@
         <v>601</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>602</v>
@@ -7570,7 +7559,7 @@
         <v>604</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>605</v>
@@ -7584,7 +7573,7 @@
         <v>607</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>608</v>
@@ -7598,7 +7587,7 @@
         <v>610</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>611</v>
@@ -7612,7 +7601,7 @@
         <v>613</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>614</v>
@@ -7626,7 +7615,7 @@
         <v>616</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>617</v>
@@ -7640,7 +7629,7 @@
         <v>619</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>620</v>
@@ -7654,7 +7643,7 @@
         <v>622</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>623</v>
@@ -7668,7 +7657,7 @@
         <v>625</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>626</v>
@@ -7682,7 +7671,7 @@
         <v>628</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>629</v>
@@ -7696,7 +7685,7 @@
         <v>631</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>632</v>
@@ -7710,7 +7699,7 @@
         <v>634</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>635</v>
@@ -7724,7 +7713,7 @@
         <v>637</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>638</v>
@@ -7738,7 +7727,7 @@
         <v>640</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>641</v>
@@ -7752,7 +7741,7 @@
         <v>643</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>644</v>
@@ -7766,7 +7755,7 @@
         <v>646</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>647</v>
@@ -7780,7 +7769,7 @@
         <v>649</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>650</v>
@@ -7794,7 +7783,7 @@
         <v>652</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>653</v>
@@ -7808,7 +7797,7 @@
         <v>655</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>656</v>
@@ -7822,7 +7811,7 @@
         <v>658</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>659</v>
@@ -7836,7 +7825,7 @@
         <v>661</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>662</v>
@@ -7850,7 +7839,7 @@
         <v>664</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>665</v>
@@ -7864,7 +7853,7 @@
         <v>667</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>668</v>
@@ -7878,7 +7867,7 @@
         <v>669</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>670</v>
@@ -7892,7 +7881,7 @@
         <v>672</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>673</v>
@@ -7906,7 +7895,7 @@
         <v>675</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>676</v>
@@ -7920,7 +7909,7 @@
         <v>678</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>679</v>
@@ -7934,7 +7923,7 @@
         <v>681</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>682</v>
@@ -7948,7 +7937,7 @@
         <v>684</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>685</v>
@@ -7962,7 +7951,7 @@
         <v>687</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>688</v>
@@ -7976,7 +7965,7 @@
         <v>690</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>691</v>
@@ -7990,7 +7979,7 @@
         <v>693</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>694</v>
@@ -8004,7 +7993,7 @@
         <v>696</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>697</v>
@@ -8018,7 +8007,7 @@
         <v>699</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>700</v>
@@ -8032,7 +8021,7 @@
         <v>702</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>703</v>
@@ -8046,7 +8035,7 @@
         <v>705</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>706</v>
@@ -8060,7 +8049,7 @@
         <v>708</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>709</v>
@@ -8074,7 +8063,7 @@
         <v>711</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>712</v>
@@ -8088,7 +8077,7 @@
         <v>714</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>715</v>
@@ -8102,7 +8091,7 @@
         <v>717</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>718</v>
@@ -8116,7 +8105,7 @@
         <v>720</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>721</v>
@@ -8130,7 +8119,7 @@
         <v>723</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>724</v>
@@ -8144,7 +8133,7 @@
         <v>726</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>727</v>
@@ -8158,7 +8147,7 @@
         <v>729</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>730</v>
@@ -8172,7 +8161,7 @@
         <v>732</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>733</v>
@@ -8186,7 +8175,7 @@
         <v>735</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>736</v>
@@ -8200,7 +8189,7 @@
         <v>738</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>739</v>
@@ -8214,7 +8203,7 @@
         <v>741</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>742</v>
@@ -8228,7 +8217,7 @@
         <v>744</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>745</v>
@@ -8242,7 +8231,7 @@
         <v>747</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>748</v>
@@ -8256,7 +8245,7 @@
         <v>750</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>751</v>
@@ -8270,7 +8259,7 @@
         <v>753</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>754</v>
@@ -8284,7 +8273,7 @@
         <v>756</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>757</v>
@@ -8298,7 +8287,7 @@
         <v>759</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>760</v>
@@ -8312,7 +8301,7 @@
         <v>762</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>763</v>
@@ -8326,7 +8315,7 @@
         <v>765</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>766</v>
@@ -8340,7 +8329,7 @@
         <v>768</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>769</v>
@@ -8354,7 +8343,7 @@
         <v>771</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>772</v>
@@ -8368,7 +8357,7 @@
         <v>774</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>499</v>
@@ -8382,7 +8371,7 @@
         <v>775</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>776</v>
@@ -8396,7 +8385,7 @@
         <v>778</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>779</v>
@@ -8410,7 +8399,7 @@
         <v>781</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>782</v>
@@ -8424,7 +8413,7 @@
         <v>784</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>785</v>
@@ -8438,7 +8427,7 @@
         <v>787</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>788</v>
@@ -8452,7 +8441,7 @@
         <v>790</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>791</v>
@@ -8466,7 +8455,7 @@
         <v>793</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>794</v>
@@ -8480,7 +8469,7 @@
         <v>796</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>797</v>
@@ -8494,7 +8483,7 @@
         <v>799</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>800</v>
@@ -8508,7 +8497,7 @@
         <v>802</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>803</v>
@@ -8522,7 +8511,7 @@
         <v>805</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>806</v>
@@ -8536,7 +8525,7 @@
         <v>808</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>809</v>
@@ -8550,7 +8539,7 @@
         <v>811</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>812</v>
@@ -8564,7 +8553,7 @@
         <v>814</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>815</v>
@@ -8578,7 +8567,7 @@
         <v>817</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>818</v>
@@ -8592,7 +8581,7 @@
         <v>820</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>821</v>
@@ -8606,7 +8595,7 @@
         <v>823</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>824</v>
@@ -8620,7 +8609,7 @@
         <v>826</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>827</v>
@@ -8634,7 +8623,7 @@
         <v>829</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>830</v>
@@ -8648,7 +8637,7 @@
         <v>832</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>833</v>
@@ -8662,7 +8651,7 @@
         <v>835</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>836</v>
@@ -8676,7 +8665,7 @@
         <v>838</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>839</v>
@@ -8690,7 +8679,7 @@
         <v>841</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>842</v>
@@ -8704,7 +8693,7 @@
         <v>844</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>420</v>
@@ -8718,7 +8707,7 @@
         <v>845</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>520</v>
@@ -8732,7 +8721,7 @@
         <v>846</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>847</v>
@@ -8746,7 +8735,7 @@
         <v>849</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>850</v>
@@ -8760,7 +8749,7 @@
         <v>852</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>853</v>
@@ -8774,7 +8763,7 @@
         <v>855</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>856</v>
@@ -8788,7 +8777,7 @@
         <v>858</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>859</v>
@@ -8802,7 +8791,7 @@
         <v>861</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>862</v>
@@ -8816,7 +8805,7 @@
         <v>864</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>865</v>
@@ -8830,7 +8819,7 @@
         <v>867</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>868</v>
@@ -8844,7 +8833,7 @@
         <v>870</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>871</v>
@@ -8858,7 +8847,7 @@
         <v>873</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>874</v>
@@ -8872,7 +8861,7 @@
         <v>876</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>877</v>
@@ -8886,7 +8875,7 @@
         <v>879</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>880</v>
@@ -8900,7 +8889,7 @@
         <v>882</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>883</v>
@@ -8914,7 +8903,7 @@
         <v>885</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>886</v>
@@ -8928,7 +8917,7 @@
         <v>888</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>889</v>
@@ -8942,7 +8931,7 @@
         <v>891</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>892</v>
@@ -8956,7 +8945,7 @@
         <v>894</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>895</v>
@@ -8970,7 +8959,7 @@
         <v>897</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>898</v>
@@ -8984,7 +8973,7 @@
         <v>900</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>901</v>
@@ -8998,7 +8987,7 @@
         <v>903</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>904</v>
@@ -9012,7 +9001,7 @@
         <v>906</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>907</v>
@@ -9026,7 +9015,7 @@
         <v>909</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>910</v>
@@ -9040,7 +9029,7 @@
         <v>912</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>913</v>
@@ -9054,7 +9043,7 @@
         <v>915</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>916</v>
@@ -9068,7 +9057,7 @@
         <v>918</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>919</v>
@@ -9082,7 +9071,7 @@
         <v>921</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>922</v>
@@ -9096,7 +9085,7 @@
         <v>924</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>925</v>
@@ -9110,7 +9099,7 @@
         <v>927</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>928</v>
@@ -9124,7 +9113,7 @@
         <v>930</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>931</v>
@@ -9138,7 +9127,7 @@
         <v>933</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>934</v>
@@ -9152,7 +9141,7 @@
         <v>936</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>937</v>
@@ -9166,7 +9155,7 @@
         <v>939</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>940</v>
@@ -9180,7 +9169,7 @@
         <v>942</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>943</v>
@@ -9194,7 +9183,7 @@
         <v>945</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>946</v>
@@ -9208,7 +9197,7 @@
         <v>948</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>949</v>
@@ -9222,7 +9211,7 @@
         <v>951</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>952</v>
@@ -9236,7 +9225,7 @@
         <v>954</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>955</v>
@@ -9250,7 +9239,7 @@
         <v>957</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>958</v>
@@ -9264,7 +9253,7 @@
         <v>960</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>961</v>
@@ -9278,7 +9267,7 @@
         <v>963</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>964</v>
@@ -9292,7 +9281,7 @@
         <v>966</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>967</v>
@@ -9306,7 +9295,7 @@
         <v>969</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>970</v>
@@ -9320,7 +9309,7 @@
         <v>972</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>973</v>
@@ -9334,7 +9323,7 @@
         <v>975</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>976</v>
@@ -9348,7 +9337,7 @@
         <v>978</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>979</v>
@@ -9362,7 +9351,7 @@
         <v>981</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>982</v>
@@ -9376,7 +9365,7 @@
         <v>984</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>985</v>
@@ -9390,7 +9379,7 @@
         <v>987</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>988</v>
@@ -9404,7 +9393,7 @@
         <v>990</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>991</v>
@@ -9418,7 +9407,7 @@
         <v>993</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>994</v>
@@ -9432,7 +9421,7 @@
         <v>996</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>997</v>
@@ -9446,7 +9435,7 @@
         <v>999</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>1000</v>
@@ -9460,7 +9449,7 @@
         <v>1002</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>1003</v>
@@ -9474,7 +9463,7 @@
         <v>1005</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>1006</v>
@@ -9488,7 +9477,7 @@
         <v>1008</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>1009</v>
@@ -9502,7 +9491,7 @@
         <v>1011</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1404</v>
+        <v>1422</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>1012</v>
@@ -9516,7 +9505,7 @@
         <v>1014</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1428</v>
+        <v>1401</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>1015</v>
@@ -9530,7 +9519,7 @@
         <v>1017</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>1018</v>
@@ -9544,7 +9533,7 @@
         <v>1020</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>1021</v>
@@ -9558,7 +9547,7 @@
         <v>1023</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>1024</v>
@@ -9572,7 +9561,7 @@
         <v>1026</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>1027</v>
@@ -9586,7 +9575,7 @@
         <v>1029</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>1030</v>
@@ -9600,27 +9589,27 @@
         <v>1032</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1410</v>
+        <v>1420</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C348" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C348" s="5" t="s">
+      <c r="D348" s="5" t="s">
         <v>1036</v>
-      </c>
-      <c r="D348" s="5" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -9628,7 +9617,7 @@
         <v>1037</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>1038</v>
@@ -9642,7 +9631,7 @@
         <v>1040</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>1041</v>
@@ -9656,7 +9645,7 @@
         <v>1043</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>1044</v>
@@ -9670,7 +9659,7 @@
         <v>1046</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>1047</v>
@@ -9684,7 +9673,7 @@
         <v>1049</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>1050</v>
@@ -9698,7 +9687,7 @@
         <v>1052</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>1053</v>
@@ -9712,7 +9701,7 @@
         <v>1055</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>1056</v>
@@ -9726,7 +9715,7 @@
         <v>1058</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>1059</v>
@@ -9740,7 +9729,7 @@
         <v>1061</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>1062</v>
@@ -9754,7 +9743,7 @@
         <v>1064</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>1065</v>
@@ -9764,73 +9753,59 @@
       </c>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B359" s="5" t="s">
+      <c r="A359" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C359" s="5" t="s">
-        <v>1068</v>
+      <c r="B359" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1433</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>1069</v>
+        <v>324</v>
       </c>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D361" s="7" t="s">
         <v>1427</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D360" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B361" s="5" t="s">
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D361" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C362" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D362" s="7" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>1436</v>
       </c>
     </row>
   </sheetData>

--- a/settings/tcschool.xlsx
+++ b/settings/tcschool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019\xlsx\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1721,9 +1721,6 @@
     <t>193615</t>
   </si>
   <si>
-    <t>24.9917854,121.4526816</t>
-  </si>
-  <si>
     <t>216339.015,2668544</t>
   </si>
   <si>
@@ -4337,6 +4334,10 @@
   </si>
   <si>
     <t>24.0950516,120.6767061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.1215861,120.6675538</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4729,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C359" sqref="C359"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4759,7 +4760,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -4773,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -4787,7 +4788,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -4801,7 +4802,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -4815,7 +4816,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -4829,7 +4830,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -4843,7 +4844,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -4857,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>26</v>
@@ -4871,7 +4872,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>29</v>
@@ -4885,7 +4886,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>32</v>
@@ -4899,7 +4900,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>35</v>
@@ -4913,7 +4914,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
@@ -4927,7 +4928,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>41</v>
@@ -4941,7 +4942,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
@@ -4955,7 +4956,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>47</v>
@@ -4969,7 +4970,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>50</v>
@@ -4983,7 +4984,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>53</v>
@@ -4997,7 +4998,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>56</v>
@@ -5011,7 +5012,7 @@
         <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>59</v>
@@ -5025,7 +5026,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>62</v>
@@ -5039,7 +5040,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>65</v>
@@ -5053,7 +5054,7 @@
         <v>67</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>68</v>
@@ -5067,7 +5068,7 @@
         <v>70</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>71</v>
@@ -5081,7 +5082,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>74</v>
@@ -5095,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>77</v>
@@ -5109,7 +5110,7 @@
         <v>79</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>80</v>
@@ -5123,7 +5124,7 @@
         <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>83</v>
@@ -5137,7 +5138,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>86</v>
@@ -5151,7 +5152,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>89</v>
@@ -5165,7 +5166,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>92</v>
@@ -5179,7 +5180,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>95</v>
@@ -5193,7 +5194,7 @@
         <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>98</v>
@@ -5207,7 +5208,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>101</v>
@@ -5221,7 +5222,7 @@
         <v>103</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>104</v>
@@ -5235,7 +5236,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>107</v>
@@ -5249,7 +5250,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>110</v>
@@ -5263,7 +5264,7 @@
         <v>112</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>113</v>
@@ -5277,7 +5278,7 @@
         <v>115</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>116</v>
@@ -5291,7 +5292,7 @@
         <v>118</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>119</v>
@@ -5305,7 +5306,7 @@
         <v>121</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>122</v>
@@ -5319,7 +5320,7 @@
         <v>124</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>125</v>
@@ -5333,7 +5334,7 @@
         <v>127</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>128</v>
@@ -5347,7 +5348,7 @@
         <v>130</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>131</v>
@@ -5361,7 +5362,7 @@
         <v>133</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>134</v>
@@ -5375,7 +5376,7 @@
         <v>136</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>137</v>
@@ -5389,7 +5390,7 @@
         <v>139</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>140</v>
@@ -5403,7 +5404,7 @@
         <v>142</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>143</v>
@@ -5417,7 +5418,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>146</v>
@@ -5431,7 +5432,7 @@
         <v>148</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>149</v>
@@ -5445,7 +5446,7 @@
         <v>151</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>152</v>
@@ -5459,7 +5460,7 @@
         <v>154</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>155</v>
@@ -5473,7 +5474,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>158</v>
@@ -5487,7 +5488,7 @@
         <v>160</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>161</v>
@@ -5501,7 +5502,7 @@
         <v>163</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>164</v>
@@ -5515,7 +5516,7 @@
         <v>166</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>167</v>
@@ -5529,7 +5530,7 @@
         <v>169</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>170</v>
@@ -5543,7 +5544,7 @@
         <v>172</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>173</v>
@@ -5557,7 +5558,7 @@
         <v>175</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>176</v>
@@ -5571,7 +5572,7 @@
         <v>178</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>179</v>
@@ -5585,7 +5586,7 @@
         <v>181</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>182</v>
@@ -5599,7 +5600,7 @@
         <v>184</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>185</v>
@@ -5613,7 +5614,7 @@
         <v>187</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>188</v>
@@ -5627,7 +5628,7 @@
         <v>190</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>191</v>
@@ -5641,7 +5642,7 @@
         <v>193</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>194</v>
@@ -5655,7 +5656,7 @@
         <v>196</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>197</v>
@@ -5669,7 +5670,7 @@
         <v>199</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>200</v>
@@ -5683,7 +5684,7 @@
         <v>202</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>203</v>
@@ -5697,7 +5698,7 @@
         <v>205</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>206</v>
@@ -5711,7 +5712,7 @@
         <v>208</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>209</v>
@@ -5725,7 +5726,7 @@
         <v>211</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>212</v>
@@ -5739,7 +5740,7 @@
         <v>214</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>215</v>
@@ -5753,7 +5754,7 @@
         <v>217</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>218</v>
@@ -5767,7 +5768,7 @@
         <v>220</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>221</v>
@@ -5781,7 +5782,7 @@
         <v>223</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>224</v>
@@ -5795,7 +5796,7 @@
         <v>226</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>227</v>
@@ -5809,7 +5810,7 @@
         <v>229</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>230</v>
@@ -5823,7 +5824,7 @@
         <v>232</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>233</v>
@@ -5837,7 +5838,7 @@
         <v>235</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>236</v>
@@ -5851,7 +5852,7 @@
         <v>238</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>239</v>
@@ -5865,7 +5866,7 @@
         <v>241</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>242</v>
@@ -5879,7 +5880,7 @@
         <v>244</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>245</v>
@@ -5893,7 +5894,7 @@
         <v>247</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>248</v>
@@ -5907,7 +5908,7 @@
         <v>250</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>251</v>
@@ -5921,7 +5922,7 @@
         <v>253</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>254</v>
@@ -5935,7 +5936,7 @@
         <v>256</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>257</v>
@@ -5949,7 +5950,7 @@
         <v>259</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>260</v>
@@ -5963,7 +5964,7 @@
         <v>262</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>263</v>
@@ -5977,7 +5978,7 @@
         <v>265</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>266</v>
@@ -5991,7 +5992,7 @@
         <v>268</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>269</v>
@@ -6005,7 +6006,7 @@
         <v>271</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>272</v>
@@ -6019,7 +6020,7 @@
         <v>274</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>275</v>
@@ -6033,7 +6034,7 @@
         <v>277</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>278</v>
@@ -6047,7 +6048,7 @@
         <v>280</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>281</v>
@@ -6061,7 +6062,7 @@
         <v>283</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>284</v>
@@ -6075,7 +6076,7 @@
         <v>286</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>287</v>
@@ -6089,7 +6090,7 @@
         <v>289</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>290</v>
@@ -6103,7 +6104,7 @@
         <v>292</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>293</v>
@@ -6117,7 +6118,7 @@
         <v>295</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>296</v>
@@ -6131,7 +6132,7 @@
         <v>298</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>299</v>
@@ -6145,7 +6146,7 @@
         <v>301</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>302</v>
@@ -6159,7 +6160,7 @@
         <v>304</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>305</v>
@@ -6173,7 +6174,7 @@
         <v>307</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>308</v>
@@ -6187,7 +6188,7 @@
         <v>310</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>311</v>
@@ -6201,7 +6202,7 @@
         <v>313</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>314</v>
@@ -6215,7 +6216,7 @@
         <v>316</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>317</v>
@@ -6229,7 +6230,7 @@
         <v>319</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>320</v>
@@ -6243,7 +6244,7 @@
         <v>322</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>323</v>
@@ -6257,7 +6258,7 @@
         <v>325</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>326</v>
@@ -6271,7 +6272,7 @@
         <v>328</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>329</v>
@@ -6285,7 +6286,7 @@
         <v>331</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>332</v>
@@ -6299,7 +6300,7 @@
         <v>334</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>335</v>
@@ -6313,7 +6314,7 @@
         <v>337</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>338</v>
@@ -6327,7 +6328,7 @@
         <v>340</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>341</v>
@@ -6341,7 +6342,7 @@
         <v>343</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>344</v>
@@ -6355,7 +6356,7 @@
         <v>346</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>347</v>
@@ -6369,7 +6370,7 @@
         <v>349</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>350</v>
@@ -6383,7 +6384,7 @@
         <v>352</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>353</v>
@@ -6397,7 +6398,7 @@
         <v>355</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>356</v>
@@ -6411,7 +6412,7 @@
         <v>358</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>359</v>
@@ -6425,7 +6426,7 @@
         <v>361</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>362</v>
@@ -6439,7 +6440,7 @@
         <v>364</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>365</v>
@@ -6453,7 +6454,7 @@
         <v>367</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>368</v>
@@ -6467,7 +6468,7 @@
         <v>370</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>371</v>
@@ -6481,7 +6482,7 @@
         <v>373</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>374</v>
@@ -6495,7 +6496,7 @@
         <v>376</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>377</v>
@@ -6509,7 +6510,7 @@
         <v>379</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>380</v>
@@ -6523,7 +6524,7 @@
         <v>382</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>383</v>
@@ -6537,7 +6538,7 @@
         <v>385</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>386</v>
@@ -6551,7 +6552,7 @@
         <v>388</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>389</v>
@@ -6565,7 +6566,7 @@
         <v>391</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>392</v>
@@ -6579,7 +6580,7 @@
         <v>394</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>395</v>
@@ -6593,7 +6594,7 @@
         <v>397</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>398</v>
@@ -6607,7 +6608,7 @@
         <v>400</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>401</v>
@@ -6621,7 +6622,7 @@
         <v>403</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>404</v>
@@ -6635,7 +6636,7 @@
         <v>406</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>407</v>
@@ -6649,7 +6650,7 @@
         <v>409</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>410</v>
@@ -6663,7 +6664,7 @@
         <v>412</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>413</v>
@@ -6677,7 +6678,7 @@
         <v>415</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>416</v>
@@ -6705,7 +6706,7 @@
         <v>422</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>423</v>
@@ -6719,7 +6720,7 @@
         <v>425</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>426</v>
@@ -6733,7 +6734,7 @@
         <v>428</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>429</v>
@@ -6747,7 +6748,7 @@
         <v>431</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>432</v>
@@ -6761,7 +6762,7 @@
         <v>434</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>435</v>
@@ -6775,7 +6776,7 @@
         <v>437</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>438</v>
@@ -6789,7 +6790,7 @@
         <v>440</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>441</v>
@@ -6803,7 +6804,7 @@
         <v>443</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>444</v>
@@ -6817,7 +6818,7 @@
         <v>446</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>447</v>
@@ -6831,7 +6832,7 @@
         <v>449</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>450</v>
@@ -6845,7 +6846,7 @@
         <v>452</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>453</v>
@@ -6859,7 +6860,7 @@
         <v>455</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>456</v>
@@ -6873,7 +6874,7 @@
         <v>458</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>459</v>
@@ -6887,7 +6888,7 @@
         <v>461</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>462</v>
@@ -6901,7 +6902,7 @@
         <v>464</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>465</v>
@@ -6915,7 +6916,7 @@
         <v>467</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>468</v>
@@ -6929,7 +6930,7 @@
         <v>470</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>471</v>
@@ -6943,7 +6944,7 @@
         <v>473</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>474</v>
@@ -6957,7 +6958,7 @@
         <v>476</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>477</v>
@@ -6971,7 +6972,7 @@
         <v>479</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>480</v>
@@ -6985,7 +6986,7 @@
         <v>482</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>483</v>
@@ -6999,7 +7000,7 @@
         <v>485</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>486</v>
@@ -7013,7 +7014,7 @@
         <v>488</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>489</v>
@@ -7027,7 +7028,7 @@
         <v>491</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>492</v>
@@ -7041,7 +7042,7 @@
         <v>494</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>495</v>
@@ -7069,7 +7070,7 @@
         <v>501</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>502</v>
@@ -7083,7 +7084,7 @@
         <v>504</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>505</v>
@@ -7097,7 +7098,7 @@
         <v>507</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>508</v>
@@ -7111,7 +7112,7 @@
         <v>510</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>511</v>
@@ -7125,7 +7126,7 @@
         <v>513</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>514</v>
@@ -7139,7 +7140,7 @@
         <v>516</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>517</v>
@@ -7153,7 +7154,7 @@
         <v>519</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>520</v>
@@ -7167,7 +7168,7 @@
         <v>522</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>523</v>
@@ -7181,7 +7182,7 @@
         <v>525</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>526</v>
@@ -7195,7 +7196,7 @@
         <v>528</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>529</v>
@@ -7209,7 +7210,7 @@
         <v>531</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>532</v>
@@ -7223,7 +7224,7 @@
         <v>534</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>535</v>
@@ -7237,7 +7238,7 @@
         <v>537</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>538</v>
@@ -7251,7 +7252,7 @@
         <v>540</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>541</v>
@@ -7265,7 +7266,7 @@
         <v>543</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>544</v>
@@ -7279,7 +7280,7 @@
         <v>546</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>547</v>
@@ -7293,7 +7294,7 @@
         <v>549</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>550</v>
@@ -7307,7 +7308,7 @@
         <v>552</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>553</v>
@@ -7321,7 +7322,7 @@
         <v>555</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>556</v>
@@ -7335,7 +7336,7 @@
         <v>558</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>559</v>
@@ -7349,7 +7350,7 @@
         <v>561</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>562</v>
@@ -7363,108 +7364,108 @@
         <v>564</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C188" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>435</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C190" s="5" t="s">
+      <c r="D190" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C191" s="5" t="s">
+      <c r="D191" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C192" s="5" t="s">
+      <c r="D192" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C193" s="5" t="s">
+      <c r="D193" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C194" s="5" t="s">
+      <c r="D194" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>51</v>
@@ -7472,391 +7473,391 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C196" s="5" t="s">
+      <c r="D196" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C197" s="5" t="s">
+      <c r="D197" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B199" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C200" s="5" t="s">
+      <c r="D200" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B201" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C201" s="5" t="s">
+      <c r="D201" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B202" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C202" s="5" t="s">
+      <c r="D202" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C203" s="5" t="s">
+      <c r="D203" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C204" s="5" t="s">
+      <c r="D204" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="D205" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C206" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C206" s="5" t="s">
+      <c r="D206" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B207" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C207" s="5" t="s">
+      <c r="D207" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C208" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C208" s="5" t="s">
+      <c r="D208" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C209" s="5" t="s">
+      <c r="D209" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C210" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B210" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C210" s="5" t="s">
+      <c r="D210" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C211" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C211" s="5" t="s">
+      <c r="D211" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B212" s="5" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C212" s="5" t="s">
+      <c r="D212" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C213" s="5" t="s">
+      <c r="D213" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B214" s="5" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C214" s="5" t="s">
+      <c r="D214" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C215" s="5" t="s">
+      <c r="D215" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B216" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C216" s="5" t="s">
+      <c r="D216" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C217" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B217" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C217" s="5" t="s">
+      <c r="D217" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C218" s="5" t="s">
+      <c r="D218" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C219" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C219" s="5" t="s">
+      <c r="D219" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C220" s="5" t="s">
+      <c r="D220" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C221" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C221" s="5" t="s">
+      <c r="D221" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C222" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C222" s="5" t="s">
+      <c r="D222" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>521</v>
@@ -7864,500 +7865,500 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B224" s="5" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C224" s="5" t="s">
+      <c r="D224" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C225" s="5" t="s">
+      <c r="D225" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C226" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C226" s="5" t="s">
+      <c r="D226" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C227" s="5" t="s">
+      <c r="D227" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C228" s="5" t="s">
+      <c r="D228" s="5" t="s">
         <v>682</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C229" s="5" t="s">
+      <c r="D229" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C230" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C230" s="5" t="s">
+      <c r="D230" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C231" s="5" t="s">
+      <c r="D231" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C232" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C232" s="5" t="s">
+      <c r="D232" s="5" t="s">
         <v>694</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C233" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B233" s="5" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C233" s="5" t="s">
+      <c r="D233" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C234" s="5" t="s">
+      <c r="D234" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C235" s="5" t="s">
+      <c r="D235" s="5" t="s">
         <v>703</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C236" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C236" s="5" t="s">
+      <c r="D236" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C237" s="5" t="s">
+      <c r="D237" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C238" s="5" t="s">
+      <c r="D238" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B239" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C239" s="5" t="s">
+      <c r="D239" s="5" t="s">
         <v>715</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C240" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B240" s="5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C240" s="5" t="s">
+      <c r="D240" s="5" t="s">
         <v>718</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C241" s="5" t="s">
+      <c r="D241" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B242" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C242" s="5" t="s">
+      <c r="D242" s="5" t="s">
         <v>724</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B243" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C243" s="5" t="s">
+      <c r="D243" s="5" t="s">
         <v>727</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C244" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B244" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C244" s="5" t="s">
+      <c r="D244" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B245" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C245" s="5" t="s">
+      <c r="D245" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C246" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C246" s="5" t="s">
+      <c r="D246" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B247" s="5" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C247" s="5" t="s">
+      <c r="D247" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C248" s="5" t="s">
+      <c r="D248" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C249" s="5" t="s">
+      <c r="D249" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C250" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="B250" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C250" s="5" t="s">
+      <c r="D250" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C251" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C251" s="5" t="s">
+      <c r="D251" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C252" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="B252" s="5" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C252" s="5" t="s">
+      <c r="D252" s="5" t="s">
         <v>754</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C253" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="B253" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C253" s="5" t="s">
+      <c r="D253" s="5" t="s">
         <v>757</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="B254" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C254" s="5" t="s">
+      <c r="D254" s="5" t="s">
         <v>760</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B255" s="5" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C255" s="5" t="s">
+      <c r="D255" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="B256" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C256" s="5" t="s">
+      <c r="D256" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B257" s="5" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C257" s="5" t="s">
+      <c r="D257" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="B258" s="5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C258" s="5" t="s">
+      <c r="D258" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>499</v>
@@ -8368,332 +8369,332 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C260" s="5" t="s">
+      <c r="D260" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C261" s="5" t="s">
+      <c r="D261" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C262" s="5" t="s">
+      <c r="D262" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C263" s="5" t="s">
+      <c r="D263" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C264" s="5" t="s">
+      <c r="D264" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="B265" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C265" s="5" t="s">
+      <c r="D265" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C266" s="5" t="s">
+      <c r="D266" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C267" s="5" t="s">
+      <c r="D267" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C268" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C268" s="5" t="s">
+      <c r="D268" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="B269" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C269" s="5" t="s">
+      <c r="D269" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B270" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C270" s="5" t="s">
+      <c r="D270" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="B271" s="5" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C271" s="5" t="s">
+      <c r="D271" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C272" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B272" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C272" s="5" t="s">
+      <c r="D272" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C273" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B273" s="5" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C273" s="5" t="s">
+      <c r="D273" s="5" t="s">
         <v>815</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C274" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B274" s="5" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C274" s="5" t="s">
+      <c r="D274" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="B275" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C275" s="5" t="s">
+      <c r="D275" s="5" t="s">
         <v>821</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="B276" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C276" s="5" t="s">
+      <c r="D276" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C277" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C277" s="5" t="s">
+      <c r="D277" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C278" s="5" t="s">
+      <c r="D278" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C279" s="5" t="s">
+      <c r="D279" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B280" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C280" s="5" t="s">
+      <c r="D280" s="5" t="s">
         <v>836</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C281" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="B281" s="5" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C281" s="5" t="s">
+      <c r="D281" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="B282" s="5" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C282" s="5" t="s">
+      <c r="D282" s="5" t="s">
         <v>842</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>420</v>
@@ -8704,10 +8705,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>520</v>
@@ -8718,1049 +8719,1049 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="B285" s="5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C285" s="5" t="s">
+      <c r="D285" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C286" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B286" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C286" s="5" t="s">
+      <c r="D286" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C287" s="5" t="s">
+      <c r="D287" s="5" t="s">
         <v>853</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C288" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="B288" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C288" s="5" t="s">
+      <c r="D288" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C289" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="B289" s="5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C289" s="5" t="s">
+      <c r="D289" s="5" t="s">
         <v>859</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C290" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="B290" s="5" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C290" s="5" t="s">
+      <c r="D290" s="5" t="s">
         <v>862</v>
-      </c>
-      <c r="D290" s="5" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C291" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="B291" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C291" s="5" t="s">
+      <c r="D291" s="5" t="s">
         <v>865</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C292" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B292" s="5" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C292" s="5" t="s">
+      <c r="D292" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C293" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="B293" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C293" s="5" t="s">
+      <c r="D293" s="5" t="s">
         <v>871</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C294" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="B294" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C294" s="5" t="s">
+      <c r="D294" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="D294" s="5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C295" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="B295" s="5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C295" s="5" t="s">
+      <c r="D295" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B296" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C296" s="5" t="s">
+      <c r="D296" s="5" t="s">
         <v>880</v>
-      </c>
-      <c r="D296" s="5" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="B297" s="5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C297" s="5" t="s">
+      <c r="D297" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="D297" s="5" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C298" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B298" s="5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C298" s="5" t="s">
+      <c r="D298" s="5" t="s">
         <v>886</v>
-      </c>
-      <c r="D298" s="5" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C299" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B299" s="5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C299" s="5" t="s">
+      <c r="D299" s="5" t="s">
         <v>889</v>
-      </c>
-      <c r="D299" s="5" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C300" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="B300" s="5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C300" s="5" t="s">
+      <c r="D300" s="5" t="s">
         <v>892</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="B301" s="5" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C301" s="5" t="s">
+      <c r="D301" s="5" t="s">
         <v>895</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C302" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="B302" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C302" s="5" t="s">
+      <c r="D302" s="5" t="s">
         <v>898</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="B303" s="5" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C303" s="5" t="s">
+      <c r="D303" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C304" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B304" s="5" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C304" s="5" t="s">
+      <c r="D304" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D304" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C305" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="B305" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C305" s="5" t="s">
+      <c r="D305" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C306" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="B306" s="5" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C306" s="5" t="s">
+      <c r="D306" s="5" t="s">
         <v>910</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="B307" s="5" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C307" s="5" t="s">
+      <c r="D307" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C308" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="B308" s="5" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C308" s="5" t="s">
+      <c r="D308" s="5" t="s">
         <v>916</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C309" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="B309" s="5" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C309" s="5" t="s">
+      <c r="D309" s="5" t="s">
         <v>919</v>
-      </c>
-      <c r="D309" s="5" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C310" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="B310" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C310" s="5" t="s">
+      <c r="D310" s="5" t="s">
         <v>922</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C311" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="B311" s="5" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C311" s="5" t="s">
+      <c r="D311" s="5" t="s">
         <v>925</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C312" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="B312" s="5" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C312" s="5" t="s">
+      <c r="D312" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D312" s="5" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C313" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="B313" s="5" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C313" s="5" t="s">
+      <c r="D313" s="5" t="s">
         <v>931</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C314" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="B314" s="5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C314" s="5" t="s">
+      <c r="D314" s="5" t="s">
         <v>934</v>
-      </c>
-      <c r="D314" s="5" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C315" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="B315" s="5" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C315" s="5" t="s">
+      <c r="D315" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C316" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C316" s="5" t="s">
+      <c r="D316" s="5" t="s">
         <v>940</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C317" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="B317" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C317" s="5" t="s">
+      <c r="D317" s="5" t="s">
         <v>943</v>
-      </c>
-      <c r="D317" s="5" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C318" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C318" s="5" t="s">
+      <c r="D318" s="5" t="s">
         <v>946</v>
-      </c>
-      <c r="D318" s="5" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C319" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="B319" s="5" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C319" s="5" t="s">
+      <c r="D319" s="5" t="s">
         <v>949</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C320" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="B320" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C320" s="5" t="s">
+      <c r="D320" s="5" t="s">
         <v>952</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C321" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B321" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C321" s="5" t="s">
+      <c r="D321" s="5" t="s">
         <v>955</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C322" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="B322" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C322" s="5" t="s">
+      <c r="D322" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C323" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C323" s="5" t="s">
+      <c r="D323" s="5" t="s">
         <v>961</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C324" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="B324" s="5" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C324" s="5" t="s">
+      <c r="D324" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="D324" s="5" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C325" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="B325" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C325" s="5" t="s">
+      <c r="D325" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C326" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="B326" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C326" s="5" t="s">
+      <c r="D326" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C327" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B327" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C327" s="5" t="s">
+      <c r="D327" s="5" t="s">
         <v>973</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C328" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="B328" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C328" s="5" t="s">
+      <c r="D328" s="5" t="s">
         <v>976</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C329" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="B329" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C329" s="5" t="s">
+      <c r="D329" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C330" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B330" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C330" s="5" t="s">
+      <c r="D330" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C331" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="B331" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C331" s="5" t="s">
+      <c r="D331" s="5" t="s">
         <v>985</v>
-      </c>
-      <c r="D331" s="5" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C332" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="B332" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C332" s="5" t="s">
+      <c r="D332" s="5" t="s">
         <v>988</v>
-      </c>
-      <c r="D332" s="5" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C333" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="B333" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C333" s="5" t="s">
+      <c r="D333" s="5" t="s">
         <v>991</v>
-      </c>
-      <c r="D333" s="5" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C334" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C334" s="5" t="s">
+      <c r="D334" s="5" t="s">
         <v>994</v>
-      </c>
-      <c r="D334" s="5" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C335" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="B335" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C335" s="5" t="s">
+      <c r="D335" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="D335" s="5" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="B336" s="5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C336" s="5" t="s">
+      <c r="D336" s="5" t="s">
         <v>1000</v>
-      </c>
-      <c r="D336" s="5" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C337" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="B337" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C337" s="5" t="s">
+      <c r="D337" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C338" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="B338" s="5" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C338" s="5" t="s">
+      <c r="D338" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C339" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C339" s="5" t="s">
+      <c r="D339" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B340" s="5" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C340" s="5" t="s">
+      <c r="D340" s="5" t="s">
         <v>1012</v>
-      </c>
-      <c r="D340" s="5" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C341" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="B341" s="5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C341" s="5" t="s">
+      <c r="D341" s="5" t="s">
         <v>1015</v>
-      </c>
-      <c r="D341" s="5" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C342" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="B342" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C342" s="5" t="s">
+      <c r="D342" s="5" t="s">
         <v>1018</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C343" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="B343" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C343" s="5" t="s">
+      <c r="D343" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="D343" s="5" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C344" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="B344" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C344" s="5" t="s">
+      <c r="D344" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="D344" s="5" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C345" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="B345" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C345" s="5" t="s">
+      <c r="D345" s="5" t="s">
         <v>1027</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C346" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="B346" s="5" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C346" s="5" t="s">
+      <c r="D346" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C347" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="B347" s="5" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>1033</v>
-      </c>
       <c r="D347" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C348" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C348" s="5" t="s">
+      <c r="D348" s="5" t="s">
         <v>1035</v>
-      </c>
-      <c r="D348" s="5" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C349" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="B349" s="5" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C349" s="5" t="s">
+      <c r="D349" s="5" t="s">
         <v>1038</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C350" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C350" s="5" t="s">
+      <c r="D350" s="5" t="s">
         <v>1041</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C351" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="B351" s="5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C351" s="5" t="s">
+      <c r="D351" s="5" t="s">
         <v>1044</v>
-      </c>
-      <c r="D351" s="5" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C352" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="B352" s="5" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C352" s="5" t="s">
+      <c r="D352" s="5" t="s">
         <v>1047</v>
-      </c>
-      <c r="D352" s="5" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C353" s="5" t="s">
+      <c r="D353" s="5" t="s">
         <v>1050</v>
-      </c>
-      <c r="D353" s="5" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C354" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="B354" s="5" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C354" s="5" t="s">
+      <c r="D354" s="5" t="s">
         <v>1053</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C355" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B355" s="5" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C355" s="5" t="s">
+      <c r="D355" s="5" t="s">
         <v>1056</v>
-      </c>
-      <c r="D355" s="5" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C356" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="B356" s="5" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C356" s="5" t="s">
+      <c r="D356" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="D356" s="5" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C357" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B357" s="5" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C357" s="5" t="s">
+      <c r="D357" s="5" t="s">
         <v>1062</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C358" s="5" t="s">
         <v>1064</v>
       </c>
-      <c r="B358" s="5" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C358" s="5" t="s">
+      <c r="D358" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="D358" s="5" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1433</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>324</v>
@@ -9768,16 +9769,16 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -9785,27 +9786,27 @@
         <v>379</v>
       </c>
       <c r="B361" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C361" s="8" t="s">
         <v>1425</v>
       </c>
-      <c r="C361" s="8" t="s">
+      <c r="D361" s="7" t="s">
         <v>1426</v>
-      </c>
-      <c r="D361" s="7" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="C362" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>1429</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>1430</v>
       </c>
     </row>
   </sheetData>

--- a/settings/tcschool.xlsx
+++ b/settings/tcschool.xlsx
@@ -4223,9 +4223,6 @@
     <t>東區國立興大附農</t>
   </si>
   <si>
-    <t>西屯區東大附中小學部</t>
-  </si>
-  <si>
     <t>北區新民高中</t>
   </si>
   <si>
@@ -4339,6 +4336,9 @@
   <si>
     <t>24.1215861,120.6675538</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西屯區東大附中</t>
   </si>
 </sst>
 </file>
@@ -4730,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B362" sqref="B362"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7154,7 +7154,7 @@
         <v>519</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>520</v>
@@ -7367,7 +7367,7 @@
         <v>1249</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>565</v>
@@ -9268,7 +9268,7 @@
         <v>962</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>963</v>
@@ -9477,8 +9477,8 @@
       <c r="A339" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>1399</v>
+      <c r="B339" s="1" t="s">
+        <v>1433</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>1008</v>
@@ -9492,7 +9492,7 @@
         <v>1010</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>1011</v>
@@ -9506,7 +9506,7 @@
         <v>1013</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>1014</v>
@@ -9520,7 +9520,7 @@
         <v>1016</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>1017</v>
@@ -9534,7 +9534,7 @@
         <v>1019</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>1020</v>
@@ -9548,7 +9548,7 @@
         <v>1022</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>1023</v>
@@ -9562,7 +9562,7 @@
         <v>1025</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>1026</v>
@@ -9576,7 +9576,7 @@
         <v>1028</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>1029</v>
@@ -9590,7 +9590,7 @@
         <v>1031</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>1032</v>
@@ -9604,7 +9604,7 @@
         <v>1033</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>1034</v>
@@ -9618,7 +9618,7 @@
         <v>1036</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>1037</v>
@@ -9632,7 +9632,7 @@
         <v>1039</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>1040</v>
@@ -9646,7 +9646,7 @@
         <v>1042</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>1043</v>
@@ -9660,7 +9660,7 @@
         <v>1045</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>1046</v>
@@ -9674,7 +9674,7 @@
         <v>1048</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>1049</v>
@@ -9688,7 +9688,7 @@
         <v>1051</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>1052</v>
@@ -9702,7 +9702,7 @@
         <v>1054</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>1055</v>
@@ -9716,7 +9716,7 @@
         <v>1057</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>1058</v>
@@ -9730,7 +9730,7 @@
         <v>1060</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>1061</v>
@@ -9744,7 +9744,7 @@
         <v>1063</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>1064</v>
@@ -9755,13 +9755,13 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1432</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>324</v>
@@ -9772,10 +9772,10 @@
         <v>1010</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>635</v>
@@ -9786,27 +9786,27 @@
         <v>379</v>
       </c>
       <c r="B361" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C361" s="8" t="s">
         <v>1424</v>
       </c>
-      <c r="C361" s="8" t="s">
+      <c r="D361" s="7" t="s">
         <v>1425</v>
-      </c>
-      <c r="D361" s="7" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="C362" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
   </sheetData>
